--- a/Content/CruzRojaPrueba.xlsx
+++ b/Content/CruzRojaPrueba.xlsx
@@ -7,32 +7,35 @@
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet11" sheetId="10" r:id="rId11"/>
-    <sheet name="Sheet10" sheetId="9" r:id="rId1"/>
-    <sheet name="Sheet9" sheetId="8" r:id="rId2"/>
-    <sheet name="Sheet8" sheetId="7" r:id="rId3"/>
-    <sheet name="Sheet7" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet6" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet5" sheetId="4" r:id="rId6"/>
-    <sheet name="Sheet4" sheetId="3" r:id="rId7"/>
-    <sheet name="Sheet3" sheetId="2" r:id="rId8"/>
-    <sheet name="Sheet2" sheetId="1" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="0" r:id="rId10"/>
+    <sheet name="Sheet2" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="0" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="3">
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>hola</t>
-  </si>
-  <si>
-    <t>chao</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+  <si>
+    <t>2023/5/2  12:14</t>
+  </si>
+  <si>
+    <t>Desagrado</t>
+  </si>
+  <si>
+    <t>Alegria</t>
+  </si>
+  <si>
+    <t>2023/5/2  12:15</t>
+  </si>
+  <si>
+    <t>Miedo</t>
+  </si>
+  <si>
+    <t>Tristeza</t>
+  </si>
+  <si>
+    <t>2023/5/2  12:17</t>
   </si>
 </sst>
 </file>
@@ -354,202 +357,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2"/>
+  <dimension ref="A2:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="2" spans="2:3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="2" spans="2:3">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="2" spans="2:3">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="2" spans="2:3">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="2" spans="2:3">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="2" spans="2:3">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="2" spans="2:3">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Content/CruzRojaPrueba.xlsx
+++ b/Content/CruzRojaPrueba.xlsx
@@ -15,27 +15,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
-    <t>2023/5/2  12:14</t>
-  </si>
-  <si>
-    <t>Desagrado</t>
+    <t>2023/5/17  11:33</t>
   </si>
   <si>
     <t>Alegria</t>
   </si>
   <si>
-    <t>2023/5/2  12:15</t>
-  </si>
-  <si>
     <t>Miedo</t>
   </si>
   <si>
-    <t>Tristeza</t>
+    <t>2023/5/17  12:4</t>
   </si>
   <si>
-    <t>2023/5/2  12:17</t>
+    <t>Tristeza</t>
   </si>
 </sst>
 </file>
@@ -363,26 +357,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -390,21 +378,21 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Content/CruzRojaPrueba.xlsx
+++ b/Content/CruzRojaPrueba.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>2023/5/17  11:33</t>
   </si>
@@ -30,6 +30,21 @@
   </si>
   <si>
     <t>Tristeza</t>
+  </si>
+  <si>
+    <t>2023/5/18  10:49</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Temor</t>
+  </si>
+  <si>
+    <t>2023/5/18  16:52</t>
+  </si>
+  <si>
+    <t>Desesperación</t>
   </si>
 </sst>
 </file>
@@ -351,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C5"/>
+  <dimension ref="A2:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -395,6 +410,28 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Content/CruzRojaPrueba.xlsx
+++ b/Content/CruzRojaPrueba.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>2023/5/17  11:33</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>Desesperación</t>
+  </si>
+  <si>
+    <t>2023/5/30  0:53</t>
+  </si>
+  <si>
+    <t>Culpa</t>
   </si>
 </sst>
 </file>
@@ -366,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C7"/>
+  <dimension ref="A2:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,6 +438,17 @@
         <v>9</v>
       </c>
     </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Content/CruzRojaPrueba.xlsx
+++ b/Content/CruzRojaPrueba.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
   <si>
     <t>2023/5/17  11:33</t>
   </si>
@@ -51,6 +51,36 @@
   </si>
   <si>
     <t>Culpa</t>
+  </si>
+  <si>
+    <t>2023/6/8  16:23</t>
+  </si>
+  <si>
+    <t>Satisfacción</t>
+  </si>
+  <si>
+    <t>2023/6/8  16:24</t>
+  </si>
+  <si>
+    <t>2023/6/8  16:25</t>
+  </si>
+  <si>
+    <t>2023/6/8  16:26</t>
+  </si>
+  <si>
+    <t>2023/6/8  16:31</t>
+  </si>
+  <si>
+    <t>2023/6/8  16:32</t>
+  </si>
+  <si>
+    <t>2023/6/8  16:34</t>
+  </si>
+  <si>
+    <t>2023/6/8  16:35</t>
+  </si>
+  <si>
+    <t>2023/6/8  17:48</t>
   </si>
 </sst>
 </file>
@@ -372,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C9"/>
+  <dimension ref="A2:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -449,6 +479,116 @@
         <v>11</v>
       </c>
     </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
